--- a/trunk/Salesforce/10 - Comunicacao/Plano de Gerenciamento de Comunicacao.xlsx
+++ b/trunk/Salesforce/10 - Comunicacao/Plano de Gerenciamento de Comunicacao.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="9780"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Tipo de Comunicação</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>Meio de Comunicação</t>
   </si>
@@ -30,40 +27,161 @@
     <t>Audiência</t>
   </si>
   <si>
-    <t>Entregável</t>
-  </si>
-  <si>
     <t>Reunião de Kickoff</t>
   </si>
   <si>
-    <t>Informar ao time do projeto quais os objetivos e as estratégias de gerenciamento do projeto</t>
-  </si>
-  <si>
     <t>Presencial</t>
   </si>
   <si>
-    <t>Uma vez</t>
-  </si>
-  <si>
-    <t>Patrocinador
-Time do Projeto
-Envolvidos</t>
-  </si>
-  <si>
-    <t>Responsável</t>
-  </si>
-  <si>
     <t>Gerente de Projeto</t>
   </si>
   <si>
-    <t>Objetivo da Comunicação</t>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Reponsável</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Envolvidos</t>
+  </si>
+  <si>
+    <t>Iniciar a execução do projeto
+Informar à equipe do projeto os objetivos e estratégias do projeto</t>
+  </si>
+  <si>
+    <t>Início do Projeto</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto
+Patrocinador
+Partes Interessadas
+Equipe do Projeto</t>
+  </si>
+  <si>
+    <t>Reunião de Acompanhamento</t>
+  </si>
+  <si>
+    <t>Monitorar e avaliar o desenvolvimento dos trabalhos projeto</t>
+  </si>
+  <si>
+    <t>Semanal</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto
+Equipe do Projeto</t>
+  </si>
+  <si>
+    <t>Reunião de Status</t>
+  </si>
+  <si>
+    <t>Apresentar status e progresso do projeto, ou atingimento de marco</t>
+  </si>
+  <si>
+    <t>Mensal ou quando ocorrer atigimento de marco</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto
+Patrocinador
+Partes Interessadas</t>
+  </si>
+  <si>
+    <t>Reunião de Análise de Risco</t>
+  </si>
+  <si>
+    <t>Análisar e planejar resposta aos riscos</t>
+  </si>
+  <si>
+    <t>Fase de planejamento do projeto ou quando necessário</t>
+  </si>
+  <si>
+    <t>Reunião Técnica</t>
+  </si>
+  <si>
+    <t>Análisar e revisar requsitos, problemas ou outras questões técnicas identificadas durante o projeto; identificar alternativas e soluções</t>
+  </si>
+  <si>
+    <t>Quando necessário</t>
+  </si>
+  <si>
+    <t>Reunião de Encerramento</t>
+  </si>
+  <si>
+    <t>Formalizar o encerramento do projeto, apresentar resultados, indicadores, desvios, problemas, soluções e liçoes aprendidas</t>
+  </si>
+  <si>
+    <t>Encerramento do Projeto</t>
+  </si>
+  <si>
+    <t>Relatório</t>
+  </si>
+  <si>
+    <t>Plano de Gerenciamento do Projeto</t>
+  </si>
+  <si>
+    <t>Divulgar o Plano de Gerenciamento do Projeto</t>
+  </si>
+  <si>
+    <t>Documento enviado via email</t>
+  </si>
+  <si>
+    <t>Início do projeto ou quando ocorrer atualização do Plano de Gerenciamento do Projeto</t>
+  </si>
+  <si>
+    <t>Relatório de Status</t>
+  </si>
+  <si>
+    <t>Documentar o status do desenolvimento dos trabalhos do projeto</t>
+  </si>
+  <si>
+    <t>Gerente de Projeto
+Partes Interessadas
+Equipe do Projeto</t>
+  </si>
+  <si>
+    <t>Relatório de Evento</t>
+  </si>
+  <si>
+    <t>Distribuir informações referentes a eventos diversos relacionados ao projeto</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Relatório de Acompanhamento Mensal</t>
+  </si>
+  <si>
+    <t>Apresentar status e progresso mensado do projeto</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>Solicitação de Mudança</t>
+  </si>
+  <si>
+    <t>Solicitar autorizar mudanças no projeto</t>
+  </si>
+  <si>
+    <t>Lições aprendidas</t>
+  </si>
+  <si>
+    <t>Documentar as lições aprendidas durante a execução do projeto</t>
+  </si>
+  <si>
+    <t>Relatório Final</t>
+  </si>
+  <si>
+    <t>Formalizar o encerramento do projeto, apresentar resultados obtidos, desvios, problemas, soluções e lições aprendidas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +189,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,13 +229,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -106,6 +249,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -184,6 +332,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -218,6 +367,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -393,101 +543,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="90">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1"/>
-    <row r="4" spans="1:7" s="2" customFormat="1"/>
-    <row r="5" spans="1:7" s="2" customFormat="1"/>
-    <row r="6" spans="1:7" s="2" customFormat="1"/>
-    <row r="7" spans="1:7" s="2" customFormat="1"/>
-    <row r="8" spans="1:7" s="2" customFormat="1"/>
-    <row r="9" spans="1:7" s="2" customFormat="1"/>
-    <row r="10" spans="1:7" s="2" customFormat="1"/>
-    <row r="11" spans="1:7" s="2" customFormat="1"/>
-    <row r="12" spans="1:7" s="2" customFormat="1"/>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
